--- a/public/template-excel/saldoAwalPinjaman.xlsx
+++ b/public/template-excel/saldoAwalPinjaman.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hakim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satriaptbtb/Sites/simpin/public/template-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E29E84E-431B-45A6-B426-1CB34E6C917E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0F29EB-5DE2-2C46-A2C3-BF87845BAE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB036497-F143-4F55-AAF2-98EEB6BEA442}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{EB036497-F143-4F55-AAF2-98EEB6BEA442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,36 +34,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>kode_anggota</t>
   </si>
   <si>
-    <t>kode_jenis_pinjam</t>
-  </si>
-  <si>
-    <t>lama_angsuran</t>
-  </si>
-  <si>
-    <t>besar_pinjaman</t>
-  </si>
-  <si>
-    <t>biaya_jasa</t>
-  </si>
-  <si>
-    <t>sisa_angsuran</t>
-  </si>
-  <si>
-    <t>106.02.005</t>
+    <t>coa</t>
+  </si>
+  <si>
+    <t>TENOR</t>
+  </si>
+  <si>
+    <t>NOMINAL PINJAMAN</t>
+  </si>
+  <si>
+    <t>ANGSURAN</t>
+  </si>
+  <si>
+    <t>SISA TENOR</t>
+  </si>
+  <si>
+    <t>TGL POSTING</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>106.10.003</t>
+  </si>
+  <si>
+    <t>sisa pinjaman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -78,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,17 +121,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{90D2E7CA-09A5-BF45-92CA-56A9ACB73E88}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -406,63 +485,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91C4A90-FCFC-4C90-9022-AA62B1B3FC70}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>5655</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>99999999</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>10000000</v>
-      </c>
-      <c r="E2">
-        <v>200000</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1470000000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1470000000</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1470000000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>42056</v>
+      </c>
+      <c r="I2" s="6">
+        <v>44926</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>